--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Оплата членского взноса</t>
   </si>
   <si>
@@ -37,13 +34,19 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №81</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,12 +174,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -238,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,10 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,7 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -481,17 +484,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C3:C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -500,12 +503,14 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -513,100 +518,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" customHeight="1">
       <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5">
         <v>10965.71</v>
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" customHeight="1">
       <c r="A4" s="10">
         <v>43386</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5">
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="11">
         <v>43586</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="7">
         <v>10810.03</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="11">
         <v>43698</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="11">
         <v>43724</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -614,12 +616,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -628,12 +630,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,13 +40,16 @@
   </si>
   <si>
     <t>Наименование / садовый участок №81</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +186,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -243,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,9 +279,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,6 +314,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -484,17 +490,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -503,8 +509,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
@@ -518,7 +524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" customHeight="1">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43221</v>
       </c>
@@ -530,7 +536,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18" customHeight="1">
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43386</v>
       </c>
@@ -542,7 +548,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>43586</v>
       </c>
@@ -554,7 +560,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43698</v>
       </c>
@@ -566,7 +572,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43724</v>
       </c>
@@ -578,31 +584,37 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="7">
+        <v>12162.5</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -616,12 +628,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,12 +642,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,16 +597,28 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="12">
+        <v>44069</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="12">
+        <v>44069</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7">
+        <v>5000</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2019/2020</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса 2020/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен членский взнос </t>
+  </si>
+  <si>
+    <t>Оплачен членский взнос 2018/2019</t>
   </si>
 </sst>
 </file>
@@ -66,7 +78,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +88,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,10 +201,22 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -494,10 +524,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -549,88 +579,142 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>43586</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="14">
         <v>10810.03</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>43698</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>7500</v>
+      <c r="A6" s="18">
+        <v>43597</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
+        <v>962.71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>43724</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7">
-        <v>2500</v>
+      <c r="A7" s="12">
+        <v>43597</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <v>134.29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>43952</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="7">
-        <v>12162.5</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>43698</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>7500</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
+        <v>43724</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>43952</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>12162.5</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>44069</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="B11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>675.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>44069</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>44140</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>44144</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <v>4165.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7">
+        <f>SUM(C3:C14)</f>
+        <v>33938.239999999998</v>
+      </c>
+      <c r="D15" s="7">
+        <f>SUM(D3:D14)</f>
+        <v>33938.240000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="17">
+        <f>SUM(D15,-C15)</f>
+        <v>7.2759576141834259E-12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2018/2019</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -699,21 +702,33 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="11">
+        <v>44317</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C15" s="7">
-        <f>SUM(C3:C14)</f>
-        <v>33938.239999999998</v>
-      </c>
-      <c r="D15" s="7">
+        <v>12967.09</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7">
+        <f>SUM(C3:C15)</f>
+        <v>46905.33</v>
+      </c>
+      <c r="D16" s="7">
         <f>SUM(D3:D14)</f>
         <v>33938.240000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="17">
-        <f>SUM(D15,-C15)</f>
-        <v>7.2759576141834259E-12</v>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="17">
+        <f>SUM(D16,-C16)</f>
+        <v>-12967.089999999997</v>
       </c>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата членского взноса </t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -714,22 +717,63 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7">
-        <f>SUM(C3:C15)</f>
+      <c r="A16" s="11">
+        <v>44418</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7">
+        <v>2586.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>44432</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>44441</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="7">
+        <f>SUM(C3:C18)</f>
         <v>46905.33</v>
       </c>
-      <c r="D16" s="7">
-        <f>SUM(D3:D14)</f>
-        <v>33938.240000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="17">
-        <f>SUM(D16,-C16)</f>
-        <v>-12967.089999999997</v>
-      </c>
+      <c r="D19" s="7">
+        <f>SUM(D3:D18)</f>
+        <v>46905.33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="4"/>
+      <c r="D20" s="17">
+        <f>SUM(D19,-C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch81.xlsx
+++ b/sputnik/personal/uch/uch81.xlsx
@@ -84,7 +84,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -181,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -223,6 +229,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -533,7 +544,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -705,50 +716,50 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="21">
         <v>44317</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="23">
         <v>12967.09</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="21">
         <v>44418</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23">
         <v>2586.09</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="21">
         <v>44432</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="21">
         <v>44441</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7">
+      <c r="C18" s="23"/>
+      <c r="D18" s="23">
         <v>7381</v>
       </c>
     </row>
